--- a/Team-Data/2007-08/2-4-2007-08.xlsx
+++ b/Team-Data/2007-08/2-4-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,73 +733,73 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>0.467</v>
+        <v>0.455</v>
       </c>
       <c r="H2" t="n">
         <v>48.6</v>
       </c>
       <c r="I2" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J2" t="n">
-        <v>78.90000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L2" t="n">
         <v>3.7</v>
       </c>
       <c r="M2" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.319</v>
+        <v>0.318</v>
       </c>
       <c r="O2" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P2" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S2" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T2" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U2" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V2" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA2" t="n">
         <v>22.2</v>
@@ -741,10 +808,10 @@
         <v>94.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -762,7 +829,7 @@
         <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK2" t="n">
         <v>23</v>
@@ -777,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP2" t="n">
         <v>6</v>
@@ -792,13 +859,13 @@
         <v>22</v>
       </c>
       <c r="AT2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU2" t="n">
         <v>16</v>
       </c>
       <c r="AV2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -938,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI3" t="n">
         <v>25</v>
@@ -977,10 +1044,10 @@
         <v>19</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
-        <v>0.367</v>
+        <v>0.375</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J4" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
         <v>6.2</v>
@@ -1063,13 +1130,13 @@
         <v>0.359</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P4" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="R4" t="n">
         <v>11.1</v>
@@ -1087,49 +1154,49 @@
         <v>15.2</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y4" t="n">
         <v>5.8</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA4" t="n">
         <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="AD4" t="n">
         <v>2</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
         <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1138,10 +1205,10 @@
         <v>16</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>16</v>
@@ -1156,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="AT4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU4" t="n">
         <v>10</v>
@@ -1165,7 +1232,7 @@
         <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX4" t="n">
         <v>12</v>
@@ -1183,7 +1250,7 @@
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.404</v>
+        <v>0.391</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J5" t="n">
-        <v>84.7</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421</v>
+        <v>0.42</v>
       </c>
       <c r="L5" t="n">
         <v>5.4</v>
@@ -1242,25 +1309,25 @@
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.342</v>
+        <v>0.339</v>
       </c>
       <c r="O5" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="P5" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.748</v>
+        <v>0.751</v>
       </c>
       <c r="R5" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="S5" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U5" t="n">
         <v>21.1</v>
@@ -1275,31 +1342,31 @@
         <v>5</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.5</v>
+        <v>94</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.8</v>
+        <v>-3.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1323,13 +1390,13 @@
         <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1350,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="AX5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY5" t="n">
         <v>27</v>
@@ -1359,10 +1426,10 @@
         <v>14</v>
       </c>
       <c r="BA5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE6" t="n">
         <v>14</v>
       </c>
       <c r="AF6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG6" t="n">
         <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
         <v>19</v>
@@ -1511,7 +1578,7 @@
         <v>15</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1532,13 +1599,13 @@
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
         <v>16</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -1576,106 +1643,106 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681</v>
+        <v>0.674</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>78</v>
       </c>
       <c r="K7" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L7" t="n">
         <v>5.8</v>
       </c>
       <c r="M7" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="P7" t="n">
         <v>26</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.821</v>
+        <v>0.822</v>
       </c>
       <c r="R7" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U7" t="n">
         <v>20.1</v>
       </c>
       <c r="V7" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y7" t="n">
         <v>4</v>
       </c>
       <c r="Z7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA7" t="n">
         <v>21.9</v>
       </c>
-      <c r="AA7" t="n">
-        <v>21.8</v>
-      </c>
       <c r="AB7" t="n">
-        <v>100.3</v>
+        <v>100.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
@@ -1687,7 +1754,7 @@
         <v>17</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
         <v>11</v>
@@ -1696,16 +1763,16 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AU7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>5</v>
@@ -1714,7 +1781,7 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" t="n">
         <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.617</v>
+        <v>0.609</v>
       </c>
       <c r="H8" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.2</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L8" t="n">
         <v>6.1</v>
@@ -1791,22 +1858,22 @@
         <v>0.333</v>
       </c>
       <c r="O8" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="S8" t="n">
         <v>33</v>
       </c>
       <c r="T8" t="n">
-        <v>45.1</v>
+        <v>44.9</v>
       </c>
       <c r="U8" t="n">
         <v>23.4</v>
@@ -1821,13 +1888,13 @@
         <v>7.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="AB8" t="n">
         <v>106.3</v>
@@ -1836,10 +1903,10 @@
         <v>2.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF8" t="n">
         <v>8</v>
@@ -1848,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,13 +1945,13 @@
         <v>14</v>
       </c>
       <c r="AR8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS8" t="n">
         <v>3</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -1896,10 +1963,10 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ8" t="n">
         <v>13</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,16 +2097,16 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2051,7 +2118,7 @@
         <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP9" t="n">
         <v>18</v>
@@ -2063,7 +2130,7 @@
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT9" t="n">
         <v>21</v>
@@ -2078,10 +2145,10 @@
         <v>16</v>
       </c>
       <c r="AX9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>2.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2239,16 +2306,16 @@
         <v>12</v>
       </c>
       <c r="AQ10" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS10" t="n">
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.583</v>
+        <v>0.574</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,10 +2389,10 @@
         <v>36.3</v>
       </c>
       <c r="J11" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L11" t="n">
         <v>6.6</v>
@@ -2334,13 +2401,13 @@
         <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.336</v>
+        <v>0.335</v>
       </c>
       <c r="O11" t="n">
         <v>16.6</v>
       </c>
       <c r="P11" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q11" t="n">
         <v>0.727</v>
@@ -2358,10 +2425,10 @@
         <v>21.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X11" t="n">
         <v>5.5</v>
@@ -2370,28 +2437,28 @@
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA11" t="n">
         <v>20.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>12</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="n">
         <v>22</v>
@@ -2400,7 +2467,7 @@
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>20</v>
@@ -2412,13 +2479,13 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>26</v>
       </c>
       <c r="AP11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>22</v>
@@ -2433,19 +2500,19 @@
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
       </c>
       <c r="AW11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2573,10 +2640,10 @@
         <v>21</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>16</v>
@@ -2609,7 +2676,7 @@
         <v>16</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT12" t="n">
         <v>5</v>
@@ -2624,10 +2691,10 @@
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -2668,64 +2735,64 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" t="n">
         <v>30</v>
       </c>
       <c r="G13" t="n">
-        <v>0.333</v>
+        <v>0.318</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
       </c>
       <c r="I13" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J13" t="n">
         <v>79.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M13" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.329</v>
+        <v>0.326</v>
       </c>
       <c r="O13" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P13" t="n">
         <v>26.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.784</v>
+        <v>0.782</v>
       </c>
       <c r="R13" t="n">
         <v>9.5</v>
       </c>
       <c r="S13" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T13" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U13" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V13" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X13" t="n">
         <v>5.2</v>
@@ -2740,25 +2807,25 @@
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.7</v>
+        <v>-5</v>
       </c>
       <c r="AD13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2767,7 +2834,7 @@
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
         <v>28</v>
@@ -2779,7 +2846,7 @@
         <v>28</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2791,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT13" t="n">
         <v>23</v>
       </c>
       <c r="AU13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
         <v>10</v>
@@ -2809,7 +2876,7 @@
         <v>7</v>
       </c>
       <c r="AY13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
@@ -2818,10 +2885,10 @@
         <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>5.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2967,7 +3034,7 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -3110,19 +3177,19 @@
         <v>-4.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3131,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="AK15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="n">
         <v>5</v>
@@ -3158,7 +3225,7 @@
         <v>9</v>
       </c>
       <c r="AT15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
         <v>21</v>
@@ -3176,7 +3243,7 @@
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3185,7 +3252,7 @@
         <v>8</v>
       </c>
       <c r="BC15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
         <v>9</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="n">
-        <v>0.191</v>
+        <v>0.196</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J16" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L16" t="n">
         <v>4.6</v>
@@ -3244,55 +3311,55 @@
         <v>13.7</v>
       </c>
       <c r="N16" t="n">
-        <v>0.333</v>
+        <v>0.337</v>
       </c>
       <c r="O16" t="n">
         <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>25.5</v>
+        <v>25.7</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.713</v>
+        <v>0.708</v>
       </c>
       <c r="R16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="U16" t="n">
         <v>19.7</v>
       </c>
       <c r="V16" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W16" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X16" t="n">
         <v>4.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB16" t="n">
-        <v>92.8</v>
+        <v>93</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.6</v>
+        <v>-7.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3307,7 +3374,7 @@
         <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3322,13 +3389,13 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>18</v>
       </c>
       <c r="AP16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
         <v>28</v>
@@ -3337,7 +3404,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT16" t="n">
         <v>30</v>
@@ -3346,13 +3413,13 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AW16" t="n">
         <v>19</v>
       </c>
       <c r="AX16" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3367,7 +3434,7 @@
         <v>30</v>
       </c>
       <c r="BC16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>-6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>10</v>
@@ -3522,13 +3589,13 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU17" t="n">
         <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
@@ -3537,7 +3604,7 @@
         <v>20</v>
       </c>
       <c r="AY17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>0.213</v>
+        <v>0.217</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
@@ -3596,13 +3663,13 @@
         <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>83.09999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L18" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
         <v>16.3</v>
@@ -3611,22 +3678,22 @@
         <v>0.335</v>
       </c>
       <c r="O18" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P18" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.722</v>
+        <v>0.724</v>
       </c>
       <c r="R18" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U18" t="n">
         <v>18.9</v>
@@ -3635,28 +3702,28 @@
         <v>15.4</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X18" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Y18" t="n">
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.8</v>
+        <v>94</v>
       </c>
       <c r="AC18" t="n">
         <v>-7.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3671,10 +3738,10 @@
         <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>24</v>
@@ -3695,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR18" t="n">
         <v>5</v>
@@ -3704,22 +3771,22 @@
         <v>21</v>
       </c>
       <c r="AT18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3731,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -3838,10 +3905,10 @@
         <v>-5.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,16 +3929,16 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
         <v>4</v>
@@ -3886,7 +3953,7 @@
         <v>16</v>
       </c>
       <c r="AT19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -3942,61 +4009,61 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" t="n">
         <v>32</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G20" t="n">
-        <v>0.681</v>
+        <v>0.696</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K20" t="n">
         <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M20" t="n">
         <v>20.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.382</v>
+        <v>0.379</v>
       </c>
       <c r="O20" t="n">
         <v>15.3</v>
       </c>
       <c r="P20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S20" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="T20" t="n">
-        <v>42.9</v>
+        <v>43</v>
       </c>
       <c r="U20" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
@@ -4008,25 +4075,25 @@
         <v>4.4</v>
       </c>
       <c r="Z20" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="AA20" t="n">
         <v>18.7</v>
       </c>
-      <c r="AA20" t="n">
-        <v>18.6</v>
-      </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
       </c>
       <c r="AF20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG20" t="n">
         <v>4</v>
@@ -4071,19 +4138,19 @@
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ20" t="n">
         <v>2</v>
@@ -4095,7 +4162,7 @@
         <v>11</v>
       </c>
       <c r="BC20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G21" t="n">
-        <v>0.292</v>
+        <v>0.298</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4142,43 +4209,43 @@
         <v>35.1</v>
       </c>
       <c r="J21" t="n">
-        <v>79.90000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L21" t="n">
         <v>5.6</v>
       </c>
       <c r="M21" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O21" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P21" t="n">
         <v>26</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.716</v>
+        <v>0.717</v>
       </c>
       <c r="R21" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S21" t="n">
         <v>29.4</v>
       </c>
       <c r="T21" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
         <v>18.2</v>
       </c>
       <c r="V21" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W21" t="n">
         <v>6.4</v>
@@ -4199,13 +4266,13 @@
         <v>94.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="AD21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
         <v>26</v>
@@ -4214,10 +4281,10 @@
         <v>26</v>
       </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
@@ -4226,16 +4293,16 @@
         <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
         <v>10</v>
@@ -4247,16 +4314,16 @@
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW21" t="n">
         <v>26</v>
@@ -4271,10 +4338,10 @@
         <v>17</v>
       </c>
       <c r="BA21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" t="n">
         <v>31</v>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.62</v>
+        <v>0.633</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4327,97 +4394,97 @@
         <v>78.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.468</v>
+        <v>0.469</v>
       </c>
       <c r="L22" t="n">
         <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="P22" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.724</v>
+        <v>0.725</v>
       </c>
       <c r="R22" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S22" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T22" t="n">
-        <v>42.4</v>
+        <v>42.6</v>
       </c>
       <c r="U22" t="n">
         <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X22" t="n">
         <v>4.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA22" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.7</v>
+        <v>103.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
         <v>26</v>
       </c>
       <c r="AK22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM22" t="n">
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
@@ -4429,16 +4496,16 @@
         <v>27</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>9</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW22" t="n">
         <v>27</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G23" t="n">
-        <v>0.375</v>
+        <v>0.383</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4518,7 +4585,7 @@
         <v>11.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.314</v>
+        <v>0.317</v>
       </c>
       <c r="O23" t="n">
         <v>18.1</v>
@@ -4527,10 +4594,10 @@
         <v>25.6</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.709</v>
+        <v>0.707</v>
       </c>
       <c r="R23" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S23" t="n">
         <v>28.8</v>
@@ -4545,34 +4612,34 @@
         <v>15.3</v>
       </c>
       <c r="W23" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X23" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y23" t="n">
         <v>5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>5.1</v>
       </c>
       <c r="Z23" t="n">
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
         <v>22</v>
@@ -4587,13 +4654,13 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN23" t="n">
         <v>30</v>
@@ -4602,7 +4669,7 @@
         <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4620,16 +4687,16 @@
         <v>24</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW23" t="n">
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ23" t="n">
         <v>9</v>
@@ -4638,10 +4705,10 @@
         <v>19</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" t="n">
         <v>14</v>
       </c>
       <c r="G24" t="n">
-        <v>0.708</v>
+        <v>0.702</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="J24" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K24" t="n">
         <v>0.492</v>
       </c>
       <c r="L24" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M24" t="n">
-        <v>23.8</v>
+        <v>23.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O24" t="n">
         <v>17.6</v>
@@ -4709,19 +4776,19 @@
         <v>22.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R24" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="S24" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T24" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U24" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="V24" t="n">
         <v>13.6</v>
@@ -4736,22 +4803,22 @@
         <v>3.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.4</v>
+        <v>109.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4772,7 +4839,7 @@
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM24" t="n">
         <v>4</v>
@@ -4781,10 +4848,10 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4808,22 +4875,22 @@
         <v>14</v>
       </c>
       <c r="AX24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BA24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4919,34 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="n">
         <v>27</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" t="n">
-        <v>0.574</v>
+        <v>0.587</v>
       </c>
       <c r="H25" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
-        <v>79</v>
+        <v>78.7</v>
       </c>
       <c r="K25" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L25" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M25" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N25" t="n">
         <v>0.39</v>
@@ -4888,58 +4955,58 @@
         <v>17.9</v>
       </c>
       <c r="P25" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R25" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S25" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V25" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W25" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y25" t="n">
         <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA25" t="n">
         <v>20.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>96.3</v>
+        <v>96.2</v>
       </c>
       <c r="AC25" t="n">
         <v>0.8</v>
       </c>
       <c r="AD25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE25" t="n">
         <v>12</v>
       </c>
-      <c r="AE25" t="n">
-        <v>13</v>
-      </c>
       <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
         <v>12</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -4948,7 +5015,7 @@
         <v>22</v>
       </c>
       <c r="AJ25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
@@ -4969,19 +5036,19 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS25" t="n">
         <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AU25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5124,7 +5191,7 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
@@ -5133,7 +5200,7 @@
         <v>24</v>
       </c>
       <c r="AK26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -5309,7 +5376,7 @@
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>25</v>
@@ -5330,22 +5397,22 @@
         <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT27" t="n">
         <v>20</v>
       </c>
       <c r="AU27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
@@ -5363,7 +5430,7 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB27" t="n">
         <v>19</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E28" t="n">
         <v>12</v>
       </c>
       <c r="F28" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" t="n">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,67 +5483,67 @@
         <v>37.4</v>
       </c>
       <c r="J28" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K28" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L28" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M28" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P28" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R28" t="n">
         <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>33.2</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>45</v>
+        <v>45.2</v>
       </c>
       <c r="U28" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="V28" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W28" t="n">
         <v>6.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y28" t="n">
         <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>21</v>
+        <v>20.8</v>
       </c>
       <c r="AA28" t="n">
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.7</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC28" t="n">
         <v>-7.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,34 +5555,34 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ28" t="n">
         <v>3</v>
       </c>
       <c r="AK28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL28" t="n">
         <v>26</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>27</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>13</v>
@@ -5524,10 +5591,10 @@
         <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV28" t="n">
         <v>27</v>
@@ -5536,10 +5603,10 @@
         <v>24</v>
       </c>
       <c r="AX28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ28" t="n">
         <v>12</v>
@@ -5551,7 +5618,7 @@
         <v>17</v>
       </c>
       <c r="BC28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" t="n">
         <v>21</v>
       </c>
       <c r="G29" t="n">
-        <v>0.553</v>
+        <v>0.543</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J29" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="K29" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L29" t="n">
         <v>7.7</v>
@@ -5610,7 +5677,7 @@
         <v>18.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.425</v>
+        <v>0.423</v>
       </c>
       <c r="O29" t="n">
         <v>16.2</v>
@@ -5622,22 +5689,22 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.4</v>
+        <v>40.6</v>
       </c>
       <c r="U29" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V29" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X29" t="n">
         <v>4</v>
@@ -5646,22 +5713,22 @@
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF29" t="n">
         <v>15</v>
@@ -5673,13 +5740,13 @@
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
         <v>7</v>
@@ -5700,13 +5767,13 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5718,7 +5785,7 @@
         <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY29" t="n">
         <v>7</v>
@@ -5733,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
         <v>18</v>
       </c>
       <c r="G30" t="n">
-        <v>0.633</v>
+        <v>0.625</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5786,28 +5853,28 @@
         <v>0.492</v>
       </c>
       <c r="L30" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="M30" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.368</v>
+        <v>0.357</v>
       </c>
       <c r="O30" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="P30" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="R30" t="n">
         <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T30" t="n">
         <v>40.8</v>
@@ -5816,40 +5883,40 @@
         <v>26.2</v>
       </c>
       <c r="V30" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W30" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="AA30" t="n">
         <v>23.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AD30" t="n">
         <v>2</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5864,28 +5931,28 @@
         <v>2</v>
       </c>
       <c r="AL30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP30" t="n">
         <v>5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>15</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT30" t="n">
         <v>22</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5903,7 +5970,7 @@
         <v>24</v>
       </c>
       <c r="AY30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
         <v>30</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6040,7 +6107,7 @@
         <v>16</v>
       </c>
       <c r="AJ31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK31" t="n">
         <v>21</v>
@@ -6088,7 +6155,7 @@
         <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-4-2007-08</t>
+          <t>2008-02-04</t>
         </is>
       </c>
     </row>
